--- a/programas/ciclos.xlsx
+++ b/programas/ciclos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\C_Pensamiento\Calendario\programas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\PensamientoC\programas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBCEA16-D218-400D-AF85-88415C46538B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C6466C-2871-4707-BA28-EBE0C3A44862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0C7E32F9-CCCD-4C30-A8E3-7503010C3747}"/>
   </bookViews>
@@ -415,15 +415,16 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.90625" customWidth="1"/>
-    <col min="2" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="4.26953125" customWidth="1"/>
-    <col min="5" max="5" width="6.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
